--- a/medicine/Enfance/Alice_dans_l'île_au_trésor/Alice_dans_l'île_au_trésor.xlsx
+++ b/medicine/Enfance/Alice_dans_l'île_au_trésor/Alice_dans_l'île_au_trésor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_dans_l%27%C3%AEle_au_tr%C3%A9sor</t>
+          <t>Alice_dans_l'île_au_trésor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice dans l'île au trésor (titre original : The Quest of the Missing Map, littéralement : À la recherche de la carte perdue) est le dix-neuvième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
+Alice dans l'île au trésor (titre original : The Quest of the Missing Map, littéralement : À la recherche de la carte perdue) est le dix-neuvième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
 Aux États-Unis, le roman a été publié pour la première fois en 1942 par Grosset &amp; Dunlap, New York. En France, il est paru pour la première fois en 1966 chez Hachette Jeunesse dans la collection « Bibliothèque verte » sous le no 291. Il n'a  plus été réédité en France depuis 1980. 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_dans_l%27%C3%AEle_au_tr%C3%A9sor</t>
+          <t>Alice_dans_l'île_au_trésor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1966 à 1972 en langue française.
 Ellen, une étudiante en musique, relate à Alice la singulière histoire de son père, Robert Smith. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_dans_l%27%C3%AEle_au_tr%C3%A9sor</t>
+          <t>Alice_dans_l'île_au_trésor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy, jeune détective amateur blonde, orpheline de mère,  fille de James Roy.
-James Roy, avoué[2] de renom, père d'Alice Roy, veuf.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice_dans_l%27%C3%AEle_au_tr%C3%A9sor</t>
+          <t>Alice_dans_l'île_au_trésor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Toutes les éditions ont paru aux éditions Hachette.
 1966 : Alice dans l'île au trésor — coll. « Bibliothèque verte » no 291, cartonné, texte original. Illustré par Albert Chazelle. Traduit par Claude Voilier. 25 chapitres. 252 p. 
